--- a/src/resources/TestData.xlsx
+++ b/src/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="2100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sd0229ddd</t>
   </si>
@@ -55,12 +56,21 @@
   </si>
   <si>
     <t>7030400093, 7798500000</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Ritesh</t>
+  </si>
+  <si>
+    <t>ritesh123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,22 +401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -420,7 +430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -434,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -446,6 +456,20 @@
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1234567</v>
       </c>
     </row>
   </sheetData>
